--- a/deep_seq_batch/figures/SBharadwaj_20240318_Sample_3_6_07_output_v0.1.1_speed_coherence.xlsx
+++ b/deep_seq_batch/figures/SBharadwaj_20240318_Sample_3_6_07_output_v0.1.1_speed_coherence.xlsx
@@ -492,34 +492,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1370676606893539</v>
+        <v>0.4674824178218842</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1361713856458664</v>
+        <v>0.5507922768592834</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1434182822704315</v>
+        <v>0.543752908706665</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1240035891532898</v>
+        <v>0.6583399176597595</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1299733966588974</v>
+        <v>0.8776518702507019</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1525468081235886</v>
+        <v>0.4712377786636353</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1412280797958374</v>
+        <v>0.6571887731552124</v>
       </c>
       <c r="I2" t="n">
-        <v>0.172096773982048</v>
+        <v>1.286740064620972</v>
       </c>
       <c r="J2" t="n">
-        <v>0.135725811123848</v>
+        <v>0.4024203717708588</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1024999991059303</v>
+        <v>0.4733333587646484</v>
       </c>
     </row>
     <row r="3">
@@ -529,34 +529,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.360024813586046</v>
+        <v>0.7856364383319008</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3381151714623589</v>
+        <v>0.648608051961704</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3697020591037476</v>
+        <v>0.6517169965568327</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3033404559707119</v>
+        <v>0.8067940101812794</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3388201586228419</v>
+        <v>0.8637998290008058</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3404089446469081</v>
+        <v>0.6515798732359266</v>
       </c>
       <c r="H3" t="n">
-        <v>0.4282354181591552</v>
+        <v>0.7693520931968368</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4160905821782147</v>
+        <v>0.8554454884340059</v>
       </c>
       <c r="J3" t="n">
-        <v>0.3224808840201266</v>
+        <v>0.6149876654017598</v>
       </c>
       <c r="K3" t="n">
-        <v>0.2874226452194206</v>
+        <v>0.8728450015187263</v>
       </c>
     </row>
   </sheetData>
